--- a/data/trans_orig/IP07C32_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C32_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30C4ACFE-271E-46ED-8A6B-657E40821DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A4806BE-69E7-4B6A-B7BC-B51EBDFD53C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF83BD7F-6931-4C81-ACBC-67E8CB751D3A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{90ABC440-3523-4714-B1E9-A4C703B98D99}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="102">
   <si>
     <t>Menores según frecuencia de haber sufrido cyberbulling en 2023 (Tasa respuesta: 29,9%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>96,54%</t>
   </si>
   <si>
-    <t>81,48%</t>
+    <t>84,51%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -89,7 +89,7 @@
     <t>98,07%</t>
   </si>
   <si>
-    <t>88,53%</t>
+    <t>89,57%</t>
   </si>
   <si>
     <t>Sí, fuera de mi colegio/instituto</t>
@@ -116,13 +116,13 @@
     <t>3,46%</t>
   </si>
   <si>
-    <t>18,52%</t>
+    <t>15,49%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>11,47%</t>
+    <t>10,43%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -131,79 +131,79 @@
     <t>94,24%</t>
   </si>
   <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
   <si>
     <t>88,82%</t>
   </si>
   <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>91,91%</t>
   </si>
   <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>11,85%</t>
+    <t>11,14%</t>
   </si>
   <si>
     <t>7,52%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -212,25 +212,25 @@
     <t>96,57%</t>
   </si>
   <si>
-    <t>88,88%</t>
+    <t>86,1%</t>
   </si>
   <si>
     <t>94,82%</t>
   </si>
   <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
   </si>
   <si>
     <t>95,81%</t>
   </si>
   <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>2,74%</t>
@@ -245,97 +245,100 @@
     <t>3,43%</t>
   </si>
   <si>
-    <t>11,12%</t>
+    <t>13,9%</t>
   </si>
   <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>4,19%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
   </si>
   <si>
     <t>94,85%</t>
   </si>
   <si>
-    <t>97,24%</t>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>90,78%</t>
   </si>
   <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>93,1%</t>
   </si>
   <si>
-    <t>86,54%</t>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>8,32%</t>
+    <t>8,62%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>6,45%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -750,7 +753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0C2E75-1F77-4FEE-B9CF-CD5D06113F40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62251723-9F9C-478C-A734-B6A65DE9D3B3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1107,7 +1110,7 @@
         <v>386</v>
       </c>
       <c r="N8" s="7">
-        <v>315802</v>
+        <v>315803</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>36</v>
@@ -1260,7 +1263,7 @@
         <v>410</v>
       </c>
       <c r="N11" s="7">
-        <v>343584</v>
+        <v>343585</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>15</v>
@@ -1495,10 +1498,10 @@
         <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>252</v>
@@ -1507,13 +1510,13 @@
         <v>182796</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>544</v>
@@ -1522,13 +1525,13 @@
         <v>435436</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1543,13 +1546,13 @@
         <v>4862</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -1558,13 +1561,13 @@
         <v>11079</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -1573,13 +1576,13 @@
         <v>15940</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1594,13 +1597,13 @@
         <v>8863</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -1609,13 +1612,13 @@
         <v>7489</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -1624,13 +1627,13 @@
         <v>16352</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1686,7 +1689,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C32_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C32_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A4806BE-69E7-4B6A-B7BC-B51EBDFD53C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A3ED030-F2C8-47F5-9D70-AC78E5F36054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{90ABC440-3523-4714-B1E9-A4C703B98D99}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{1F7FCB58-DE4B-4100-863F-BDD967584043}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="102">
-  <si>
-    <t>Menores según frecuencia de haber sufrido cyberbulling en 2023 (Tasa respuesta: 29,9%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="169">
+  <si>
+    <t>Menores según si han sufrido cyberbulling en 2023 (Tasa respuesta: 30,05%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,277 +68,478 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>Sí, fuera de mi colegio/instituto</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>Sí, en mi colegio/instituto</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
   </si>
   <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
     <t>3,3%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -753,8 +954,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62251723-9F9C-478C-A734-B6A65DE9D3B3}">
-  <dimension ref="A1:Q20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818A2789-5989-4B2F-9053-DF9F3A91D30E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -871,10 +1072,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>16332</v>
+        <v>653</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -886,13 +1087,13 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>13519</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -901,19 +1102,19 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>29851</v>
+        <v>653</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -922,512 +1123,510 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>717</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>863</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1579</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>586</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>783</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>586</v>
+        <v>783</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="7">
         <v>3</v>
       </c>
-      <c r="C7" s="7">
-        <v>21</v>
-      </c>
       <c r="D7" s="7">
-        <v>16918</v>
+        <v>1872</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2723</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="7">
+        <v>7</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4595</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7">
+        <v>9166</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="7">
         <v>15</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="7">
-        <v>17</v>
-      </c>
-      <c r="I7" s="7">
-        <v>13519</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="7">
-        <v>38</v>
-      </c>
-      <c r="N7" s="7">
-        <v>30437</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7">
-        <v>205</v>
-      </c>
-      <c r="D8" s="7">
-        <v>184972</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="7">
-        <v>181</v>
-      </c>
       <c r="I8" s="7">
-        <v>130830</v>
+        <v>12385</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>386</v>
+        <v>28</v>
       </c>
       <c r="N8" s="7">
-        <v>315803</v>
+        <v>21551</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
         <v>18</v>
       </c>
-      <c r="C9" s="7">
+      <c r="D9" s="7">
+        <v>12407</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="7">
+        <v>21</v>
+      </c>
+      <c r="I9" s="7">
+        <v>16754</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="7">
+        <v>39</v>
+      </c>
+      <c r="N9" s="7">
+        <v>29162</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
         <v>2</v>
       </c>
-      <c r="D9" s="7">
-        <v>4862</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="7">
-        <v>5</v>
-      </c>
-      <c r="I9" s="7">
-        <v>11079</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="7">
-        <v>7</v>
-      </c>
-      <c r="N9" s="7">
-        <v>15940</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="7">
-        <v>9</v>
-      </c>
       <c r="D10" s="7">
-        <v>6453</v>
+        <v>1047</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>5388</v>
+        <v>910</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>11841</v>
+        <v>1957</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7">
         <v>3</v>
       </c>
-      <c r="C11" s="7">
-        <v>216</v>
-      </c>
       <c r="D11" s="7">
-        <v>196287</v>
+        <v>2143</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>194</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>147297</v>
+        <v>2396</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>410</v>
+        <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>343585</v>
+        <v>4539</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>51337</v>
+        <v>416</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>38447</v>
+        <v>1080</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="M12" s="7">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>89783</v>
+        <v>1495</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>52213</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>38073</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>90286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="D14" s="7">
-        <v>1823</v>
+        <v>103494</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="I14" s="7">
-        <v>2101</v>
+        <v>160242</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>327</v>
       </c>
       <c r="N14" s="7">
-        <v>3925</v>
+        <v>263736</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1436,102 +1635,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="D15" s="7">
-        <v>53160</v>
+        <v>159313</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="H15" s="7">
-        <v>57</v>
+        <v>217</v>
       </c>
       <c r="I15" s="7">
-        <v>40548</v>
+        <v>202700</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
-        <v>126</v>
+        <v>412</v>
       </c>
       <c r="N15" s="7">
-        <v>93708</v>
+        <v>362013</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>252641</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>182796</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="M16" s="7">
-        <v>544</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>435436</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1540,168 +1739,578 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>4862</v>
+        <v>590</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>11079</v>
+        <v>2404</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>15940</v>
+        <v>2994</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1445</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2369</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="7">
-        <v>8863</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="7">
-        <v>11</v>
-      </c>
-      <c r="I18" s="7">
-        <v>7489</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M18" s="7">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>16352</v>
+        <v>3815</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="7">
+        <v>7</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4623</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="7">
+        <v>10</v>
+      </c>
+      <c r="I19" s="7">
+        <v>7229</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M19" s="7">
+        <v>17</v>
+      </c>
+      <c r="N19" s="7">
+        <v>11853</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="7">
+        <v>46</v>
+      </c>
+      <c r="D20" s="7">
+        <v>32094</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="7">
+        <v>54</v>
+      </c>
+      <c r="I20" s="7">
+        <v>40690</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M20" s="7">
+        <v>100</v>
+      </c>
+      <c r="N20" s="7">
+        <v>72784</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="7">
-        <v>306</v>
-      </c>
-      <c r="D19" s="7">
-        <v>266365</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="7">
-        <v>268</v>
-      </c>
-      <c r="I19" s="7">
-        <v>201364</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="7">
-        <v>574</v>
-      </c>
-      <c r="N19" s="7">
-        <v>467729</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>101</v>
+      <c r="C21" s="7">
+        <v>57</v>
+      </c>
+      <c r="D21" s="7">
+        <v>38752</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="7">
+        <v>69</v>
+      </c>
+      <c r="I21" s="7">
+        <v>52693</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="7">
+        <v>126</v>
+      </c>
+      <c r="N21" s="7">
+        <v>91445</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>3</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1700</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>910</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M22" s="7">
+        <v>4</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2609</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="7">
+        <v>5</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3450</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="7">
+        <v>7</v>
+      </c>
+      <c r="I23" s="7">
+        <v>5662</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M23" s="7">
+        <v>12</v>
+      </c>
+      <c r="N23" s="7">
+        <v>9112</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="7">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1861</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" s="7">
+        <v>4</v>
+      </c>
+      <c r="I24" s="7">
+        <v>4232</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M24" s="7">
+        <v>8</v>
+      </c>
+      <c r="N24" s="7">
+        <v>6093</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="7">
+        <v>48</v>
+      </c>
+      <c r="D25" s="7">
+        <v>58708</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" s="7">
+        <v>50</v>
+      </c>
+      <c r="I25" s="7">
+        <v>48025</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M25" s="7">
+        <v>98</v>
+      </c>
+      <c r="N25" s="7">
+        <v>106734</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="7">
+        <v>210</v>
+      </c>
+      <c r="D26" s="7">
+        <v>144753</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H26" s="7">
+        <v>245</v>
+      </c>
+      <c r="I26" s="7">
+        <v>213317</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M26" s="7">
+        <v>455</v>
+      </c>
+      <c r="N26" s="7">
+        <v>358070</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>270</v>
+      </c>
+      <c r="D27" s="7">
+        <v>210472</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="7">
+        <v>307</v>
+      </c>
+      <c r="I27" s="7">
+        <v>272147</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" s="7">
+        <v>577</v>
+      </c>
+      <c r="N27" s="7">
+        <v>482619</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
